--- a/data/0. old data/0. raw/2016/companies/mundipharma.xlsx
+++ b/data/0. old data/0. raw/2016/companies/mundipharma.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="2520" windowWidth="34820" windowHeight="11900"/>
+    <workbookView xWindow="4400" yWindow="2880" windowWidth="34820" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="mundipharma" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="283">
   <si>
     <t>name</t>
   </si>
@@ -85,93 +85,48 @@
     <t>Genf</t>
   </si>
   <si>
-    <t>HUG</t>
-  </si>
-  <si>
-    <t>CHUV</t>
-  </si>
-  <si>
     <t>Bern</t>
   </si>
   <si>
-    <t>Universitäre Psychiatrische Dienste</t>
-  </si>
-  <si>
     <t>Basel</t>
   </si>
   <si>
-    <t>Universitäte Psychiatrische Kliniken</t>
-  </si>
-  <si>
     <t>Kirchlindach</t>
   </si>
   <si>
-    <t>Klinik Südhang</t>
-  </si>
-  <si>
     <t>St. Gallen</t>
   </si>
   <si>
-    <t>FOSUMOS</t>
-  </si>
-  <si>
     <t>Zürich</t>
   </si>
   <si>
-    <t>ARUD</t>
-  </si>
-  <si>
     <t>La Chaux-de-Fonds</t>
   </si>
   <si>
-    <t>Centre Prévention Traitement des Addicitons</t>
-  </si>
-  <si>
-    <t>Centre St. Martin</t>
-  </si>
-  <si>
     <t>Prilly</t>
   </si>
   <si>
-    <t>Hôpital de Cery</t>
-  </si>
-  <si>
     <t>Yverdon les Bains</t>
   </si>
   <si>
     <t>Fribourg</t>
   </si>
   <si>
-    <t>Centre Cantonal d'Addictiologie</t>
-  </si>
-  <si>
     <t>Neuchâtel</t>
   </si>
   <si>
-    <t>Fondation Neuchâtel Addictions</t>
-  </si>
-  <si>
     <t>Chêne-Bougries</t>
   </si>
   <si>
-    <t>Fondation Phenix</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
     <t>Acacias</t>
   </si>
   <si>
-    <t>CAAP Arve</t>
-  </si>
-  <si>
     <t>Lugano</t>
   </si>
   <si>
-    <t>Ospedale Regionale di Lugano</t>
-  </si>
-  <si>
     <t>Bellinzona</t>
   </si>
   <si>
@@ -184,9 +139,6 @@
     <t>Burgdorf</t>
   </si>
   <si>
-    <t>Spital Emmental AG</t>
-  </si>
-  <si>
     <t>Kantonsspital</t>
   </si>
   <si>
@@ -199,33 +151,15 @@
     <t>Horgen</t>
   </si>
   <si>
-    <t>See-Spital</t>
-  </si>
-  <si>
-    <t>Praxis</t>
-  </si>
-  <si>
     <t>Clarens</t>
   </si>
   <si>
-    <t>Clinique la Prairie SA</t>
-  </si>
-  <si>
     <t>Rolle</t>
   </si>
   <si>
-    <t>Hôpital de Rolle</t>
-  </si>
-  <si>
-    <t>Universitätspital</t>
-  </si>
-  <si>
     <t>Morges</t>
   </si>
   <si>
-    <t>Hôpital de Morges</t>
-  </si>
-  <si>
     <t>Biel</t>
   </si>
   <si>
@@ -235,63 +169,36 @@
     <t>Schiers</t>
   </si>
   <si>
-    <t>Spital Schiers</t>
-  </si>
-  <si>
     <t>Winterthur</t>
   </si>
   <si>
     <t>Zug</t>
   </si>
   <si>
-    <t>Aeskulap Praxis</t>
-  </si>
-  <si>
     <t>Langenthal</t>
   </si>
   <si>
     <t>Barmelweid</t>
   </si>
   <si>
-    <t>Klinik Barmelweid AG</t>
-  </si>
-  <si>
     <t>Oberwil</t>
   </si>
   <si>
-    <t>Lungenpraxis</t>
-  </si>
-  <si>
     <t>Schwyz</t>
   </si>
   <si>
-    <t>Spital Schwyz</t>
-  </si>
-  <si>
     <t>Sarnen</t>
   </si>
   <si>
-    <t>Kantonsspital Obwalden</t>
-  </si>
-  <si>
-    <t>St. Claraspital</t>
-  </si>
-  <si>
     <t>Bruderholz</t>
   </si>
   <si>
-    <t>Kantonsspital BL</t>
-  </si>
-  <si>
     <t>Universitätsklinik für Pneumologie</t>
   </si>
   <si>
     <t>Inselspital</t>
   </si>
   <si>
-    <t>Lungenpraxis Bern West</t>
-  </si>
-  <si>
     <t>Wolhusen</t>
   </si>
   <si>
@@ -337,9 +244,6 @@
     <t>Spital Thurgau</t>
   </si>
   <si>
-    <t>Münster</t>
-  </si>
-  <si>
     <t>Journée Jurassienne de Médecine</t>
   </si>
   <si>
@@ -568,37 +472,7 @@
     <t>Palliative.be</t>
   </si>
   <si>
-    <t>Stadtspital Triemli</t>
-  </si>
-  <si>
-    <t>Lungenzentrum Hirslanden</t>
-  </si>
-  <si>
-    <t>Lungenpraxis Morgental</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Doktor Zentrum Wettingen AG</t>
-  </si>
-  <si>
-    <t>Ospedale Beata Verdine</t>
-  </si>
-  <si>
-    <t>Spital Wallis</t>
-  </si>
-  <si>
-    <t>Privatklinik</t>
-  </si>
-  <si>
     <t>Lindau</t>
-  </si>
-  <si>
-    <t>Triemli</t>
-  </si>
-  <si>
-    <t>Lindenhofspital</t>
-  </si>
-  <si>
-    <t>Schmerzklinik</t>
   </si>
   <si>
     <t>Muralto</t>
@@ -1884,9 +1758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1948,13 +1822,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
@@ -1977,22 +1851,20 @@
         <v>675</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
@@ -2011,22 +1883,20 @@
         <v>887</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
@@ -2045,22 +1915,20 @@
         <v>860</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
@@ -2079,22 +1947,20 @@
         <v>1002</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
@@ -2113,22 +1979,20 @@
         <v>890</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
@@ -2147,22 +2011,20 @@
         <v>883</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
@@ -2181,22 +2043,20 @@
         <v>580</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
@@ -2215,22 +2075,20 @@
         <v>688</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
@@ -2249,22 +2107,20 @@
         <v>688</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -2283,22 +2139,20 @@
         <v>606</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
@@ -2317,22 +2171,20 @@
         <v>614</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
@@ -2351,22 +2203,20 @@
         <v>870</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
@@ -2385,22 +2235,20 @@
         <v>762</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
@@ -2419,22 +2267,20 @@
         <v>1008</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
@@ -2453,22 +2299,20 @@
         <v>740</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
@@ -2487,22 +2331,20 @@
         <v>665</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
@@ -2521,22 +2363,20 @@
         <v>699</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
@@ -2555,22 +2395,20 @@
         <v>867</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
@@ -2589,22 +2427,20 @@
         <v>823</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
@@ -2623,22 +2459,20 @@
         <v>792</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
@@ -2657,22 +2491,20 @@
         <v>769</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
@@ -2691,22 +2523,20 @@
         <v>940</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
@@ -2725,22 +2555,20 @@
         <v>584</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6">
@@ -2759,22 +2587,20 @@
         <v>1278</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6">
@@ -2793,22 +2619,20 @@
         <v>1251</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6">
@@ -2827,22 +2651,20 @@
         <v>1074</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
@@ -2861,22 +2683,20 @@
         <v>1112</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
@@ -2895,22 +2715,20 @@
         <v>806</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
@@ -2929,22 +2747,20 @@
         <v>1112</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
@@ -2963,22 +2779,20 @@
         <v>1308</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
@@ -2997,22 +2811,20 @@
         <v>1328</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6">
@@ -3031,22 +2843,20 @@
         <v>1180</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
@@ -3065,22 +2875,20 @@
         <v>1864</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
@@ -3099,22 +2907,20 @@
         <v>1422</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
@@ -3133,22 +2939,20 @@
         <v>1374</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
@@ -3167,22 +2971,20 @@
         <v>1626</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
@@ -3201,22 +3003,20 @@
         <v>1780</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D39" s="3"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
@@ -3235,22 +3035,20 @@
         <v>1500</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6">
@@ -3269,22 +3067,20 @@
         <v>1544</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
@@ -3303,22 +3099,20 @@
         <v>2708</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6">
@@ -3337,22 +3131,20 @@
         <v>4738</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
@@ -3371,22 +3163,20 @@
         <v>2650</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6">
@@ -3405,22 +3195,20 @@
         <v>690</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D45" s="3"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
@@ -3439,22 +3227,20 @@
         <v>690</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6">
@@ -3473,22 +3259,20 @@
         <v>690</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
@@ -3507,22 +3291,20 @@
         <v>690</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
@@ -3541,22 +3323,20 @@
         <v>510</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6">
@@ -3575,22 +3355,20 @@
         <v>1015</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6">
@@ -3609,22 +3387,20 @@
         <v>922</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6">
@@ -3643,22 +3419,20 @@
         <v>656</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
@@ -3677,22 +3451,20 @@
         <v>668</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
@@ -3711,22 +3483,20 @@
         <v>714</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
@@ -3745,22 +3515,20 @@
         <v>674</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D55" s="3"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
@@ -3779,22 +3547,20 @@
         <v>674</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6">
@@ -3813,22 +3579,20 @@
         <v>674</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="8" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6">
@@ -3847,22 +3611,20 @@
         <v>1408</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6">
@@ -3881,21 +3643,18 @@
         <v>714</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D59" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -3915,21 +3674,18 @@
         <v>690</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="5" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -3949,21 +3705,18 @@
         <v>724</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3983,21 +3736,18 @@
         <v>738</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -4017,21 +3767,18 @@
         <v>838</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D63" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -4051,21 +3798,18 @@
         <v>710</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -4085,21 +3829,18 @@
         <v>952</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -4119,21 +3860,18 @@
         <v>704</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -4153,21 +3891,18 @@
         <v>788</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -4187,21 +3922,18 @@
         <v>550</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D68" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4221,21 +3953,18 @@
         <v>4656</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D69" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -4255,21 +3984,18 @@
         <v>6813</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="8" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4289,21 +4015,18 @@
         <v>12100</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -4323,21 +4046,18 @@
         <v>6750</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D72" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -4357,21 +4077,18 @@
         <v>7500</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D73" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4391,21 +4108,18 @@
         <v>4400</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D74" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -4425,21 +4139,18 @@
         <v>1500</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -4459,21 +4170,18 @@
         <v>500</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -4493,21 +4201,18 @@
         <v>300</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -4527,21 +4232,18 @@
         <v>1000</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D78" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -4561,21 +4263,18 @@
         <v>1500</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -4595,21 +4294,18 @@
         <v>1000</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -4629,21 +4325,18 @@
         <v>1000</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D81" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -4663,21 +4356,18 @@
         <v>2000</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -4697,21 +4387,18 @@
         <v>2000</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -4731,21 +4418,18 @@
         <v>2000</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="B84" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -4765,21 +4449,18 @@
         <v>1000</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -4799,21 +4480,18 @@
         <v>500</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D86" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -4833,21 +4511,18 @@
         <v>2500</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="5" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -4867,21 +4542,18 @@
         <v>892</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4901,20 +4573,17 @@
         <v>1000</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="5" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D89" t="s">
         <v>194</v>
       </c>
       <c r="F89" s="6"/>
@@ -4935,21 +4604,18 @@
         <v>1000</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D90" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -4969,21 +4635,18 @@
         <v>2000</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -5003,21 +4666,18 @@
         <v>920</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="8" customFormat="1">
       <c r="A92" s="8" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F92" s="9">
         <v>6000</v>
@@ -5041,21 +4701,18 @@
         <v>6000</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="4" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F93" s="6">
         <v>3800</v>
@@ -5079,21 +4736,18 @@
         <v>3800</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="4" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F94" s="6">
         <v>6740</v>
@@ -5117,21 +4771,18 @@
         <v>6740</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D95" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="F95" s="6">
         <v>12700</v>
@@ -5155,21 +4806,18 @@
         <v>12700</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="4" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D96" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F96" s="6">
         <v>3250</v>
@@ -5193,21 +4841,18 @@
         <v>3250</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="4" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D97" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F97" s="6">
         <v>10000</v>
@@ -5231,21 +4876,18 @@
         <v>10000</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="4" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D98" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F98" s="6">
         <v>23060</v>
@@ -5269,21 +4911,18 @@
         <v>23060</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="4" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F99" s="6">
         <v>5696.7</v>
@@ -5307,21 +4946,18 @@
         <v>5696.7</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="4" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D100" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="F100" s="6">
         <v>64800</v>
@@ -5345,21 +4981,18 @@
         <v>64800</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="4" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F101" s="6">
         <v>11420</v>
@@ -5383,21 +5016,18 @@
         <v>11420</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="4" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" s="6">
         <v>3300</v>
@@ -5421,21 +5051,18 @@
         <v>3300</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="4" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D103" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F103" s="6">
         <v>6100</v>
@@ -5459,21 +5086,18 @@
         <v>6100</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="4" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D104" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F104" s="6">
         <v>9000</v>
@@ -5497,21 +5121,18 @@
         <v>9000</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="4" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D105" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F105" s="6">
         <v>6500</v>
@@ -5535,21 +5156,18 @@
         <v>6500</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="4" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="F106" s="6">
         <v>6120</v>
@@ -5573,21 +5191,18 @@
         <v>6120</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="4" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D107" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F107" s="6">
         <v>3000</v>
@@ -5611,21 +5226,18 @@
         <v>3000</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="4" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="F108" s="6">
         <v>2400</v>
@@ -5649,21 +5261,18 @@
         <v>2400</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D109" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F109" s="6">
         <v>28153</v>
@@ -5687,21 +5296,18 @@
         <v>28153</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D110" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="F110" s="6">
         <v>43020</v>
@@ -5725,21 +5331,18 @@
         <v>43020</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="4" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F111" s="6">
         <v>40675.5</v>
@@ -5763,21 +5366,18 @@
         <v>40675.5</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="4" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D112" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F112" s="6">
         <v>1500</v>
@@ -5801,21 +5401,18 @@
         <v>1500</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="4" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D113" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="F113" s="6">
         <v>8800</v>
@@ -5839,21 +5436,18 @@
         <v>8800</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D114" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="F114" s="6">
         <v>30023</v>
@@ -5877,21 +5471,18 @@
         <v>30023</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="4" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="F115" s="6">
         <v>5821.5</v>
@@ -5915,21 +5506,18 @@
         <v>5821.5</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="4" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D116" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F116" s="6">
         <v>3500</v>
@@ -5953,21 +5541,18 @@
         <v>3500</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="4" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="F117" s="6">
         <v>2000</v>
@@ -5991,21 +5576,18 @@
         <v>2000</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="4" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
         <v>19</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="F118" s="6">
         <v>5060</v>
@@ -6029,21 +5611,18 @@
         <v>5060</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="4" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D119" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F119" s="6">
         <v>14900</v>
@@ -6067,21 +5646,18 @@
         <v>14900</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="4" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D120" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="F120" s="6">
         <v>6000</v>
@@ -6105,21 +5681,18 @@
         <v>6000</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="4" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D121" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F121" s="6">
         <v>6000</v>
@@ -6143,21 +5716,18 @@
         <v>6000</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D122" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="F122" s="6">
         <v>1000</v>
@@ -6181,22 +5751,20 @@
         <v>1000</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D123" s="5"/>
       <c r="F123" s="6">
         <v>1000</v>
       </c>
@@ -6219,22 +5787,20 @@
         <v>1000</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="5" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D124" s="5"/>
       <c r="F124" s="6">
         <v>1500</v>
       </c>
@@ -6257,22 +5823,20 @@
         <v>1500</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D125" s="5"/>
       <c r="F125" s="6">
         <v>8258</v>
       </c>
@@ -6295,22 +5859,20 @@
         <v>8258</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D126" s="5"/>
       <c r="F126" s="6">
         <v>4000</v>
       </c>
@@ -6333,22 +5895,20 @@
         <v>4000</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="5" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D127" s="5"/>
       <c r="F127" s="6">
         <v>2000</v>
       </c>
@@ -6371,22 +5931,20 @@
         <v>2000</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="5" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D128" s="5"/>
       <c r="F128" s="6">
         <v>2000</v>
       </c>
@@ -6409,22 +5967,20 @@
         <v>2000</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="5" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D129" s="5"/>
       <c r="F129" s="6">
         <v>2000</v>
       </c>
@@ -6447,22 +6003,20 @@
         <v>2000</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="5" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D130" s="5"/>
       <c r="F130" s="6">
         <v>2000</v>
       </c>
@@ -6485,22 +6039,20 @@
         <v>2000</v>
       </c>
       <c r="M130" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="5" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D131" s="5"/>
       <c r="F131" s="6">
         <v>2000</v>
       </c>
@@ -6523,22 +6075,20 @@
         <v>2000</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="5" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D132" s="5"/>
       <c r="F132" s="6">
         <v>3240</v>
       </c>
@@ -6561,22 +6111,20 @@
         <v>3240</v>
       </c>
       <c r="M132" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="5" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D133" s="5"/>
       <c r="F133" s="6">
         <v>2000</v>
       </c>
@@ -6599,22 +6147,20 @@
         <v>2000</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D134" s="5"/>
       <c r="F134" s="6">
         <v>4500</v>
       </c>
@@ -6637,22 +6183,20 @@
         <v>4500</v>
       </c>
       <c r="M134" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D135" s="5"/>
       <c r="F135" s="6">
         <v>11500</v>
       </c>
@@ -6675,22 +6219,20 @@
         <v>11500</v>
       </c>
       <c r="M135" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="5" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D136" s="5"/>
       <c r="F136" s="6">
         <v>6000</v>
       </c>
@@ -6713,22 +6255,20 @@
         <v>6000</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D137" s="5"/>
       <c r="F137" s="6">
         <v>1500</v>
       </c>
@@ -6751,22 +6291,20 @@
         <v>1500</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="5" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D138" s="5"/>
       <c r="F138" s="6">
         <v>2000</v>
       </c>
@@ -6789,22 +6327,20 @@
         <v>2000</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D139" s="5"/>
       <c r="F139" s="6">
         <v>4500</v>
       </c>
@@ -6827,22 +6363,20 @@
         <v>4500</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="5" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D140" s="5"/>
       <c r="F140" s="6">
         <v>1000</v>
       </c>
@@ -6865,22 +6399,20 @@
         <v>1000</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="5" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D141" s="5"/>
       <c r="F141" s="6">
         <v>6500</v>
       </c>
@@ -6903,22 +6435,20 @@
         <v>6500</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D142" s="5"/>
       <c r="F142" s="6">
         <v>2500</v>
       </c>
@@ -6941,22 +6471,20 @@
         <v>2500</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="5" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D143" s="5"/>
       <c r="F143" s="6">
         <v>1000</v>
       </c>
@@ -6979,22 +6507,20 @@
         <v>1000</v>
       </c>
       <c r="M143" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="5" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>115</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D144" s="5"/>
       <c r="F144" s="6">
         <v>2500</v>
       </c>
@@ -7017,22 +6543,20 @@
         <v>2500</v>
       </c>
       <c r="M144" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="5" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D145" s="5"/>
       <c r="F145" s="6">
         <v>1500</v>
       </c>
@@ -7055,22 +6579,20 @@
         <v>1500</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>118</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D146" s="5"/>
       <c r="F146" s="6">
         <v>2000</v>
       </c>
@@ -7093,22 +6615,20 @@
         <v>2000</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="5" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D147" s="5"/>
       <c r="F147" s="6">
         <v>4100</v>
       </c>
@@ -7131,22 +6651,20 @@
         <v>4100</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="5" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D148" s="5"/>
       <c r="F148" s="6">
         <v>2800</v>
       </c>
@@ -7169,22 +6687,20 @@
         <v>2800</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="5" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D149" s="5"/>
       <c r="F149" s="6">
         <v>1500</v>
       </c>
@@ -7207,22 +6723,20 @@
         <v>1500</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="5" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D150" s="5"/>
       <c r="F150" s="6">
         <v>11500</v>
       </c>
@@ -7245,22 +6759,20 @@
         <v>11500</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="5" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>124</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D151" s="5"/>
       <c r="F151" s="6">
         <v>1500</v>
       </c>
@@ -7283,22 +6795,20 @@
         <v>1500</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="5" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>126</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D152" s="5"/>
       <c r="F152" s="6">
         <v>1500</v>
       </c>
@@ -7321,22 +6831,20 @@
         <v>1500</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="5" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D153" s="5"/>
       <c r="F153" s="6">
         <v>2000</v>
       </c>
@@ -7359,22 +6867,20 @@
         <v>2000</v>
       </c>
       <c r="M153" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="5" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D154" s="5"/>
       <c r="F154" s="6">
         <v>1000</v>
       </c>
@@ -7397,22 +6903,20 @@
         <v>1000</v>
       </c>
       <c r="M154" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="5" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D155" s="5"/>
       <c r="F155" s="6">
         <v>1000</v>
       </c>
@@ -7435,22 +6939,20 @@
         <v>1000</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="5" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D156" s="5"/>
       <c r="F156" s="6">
         <v>3500</v>
       </c>
@@ -7473,22 +6975,20 @@
         <v>3500</v>
       </c>
       <c r="M156" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="5" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>133</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D157" s="5"/>
       <c r="F157" s="6">
         <v>1000</v>
       </c>
@@ -7511,22 +7011,20 @@
         <v>1000</v>
       </c>
       <c r="M157" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="5" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D158" s="5"/>
       <c r="F158" s="6">
         <v>1540</v>
       </c>
@@ -7549,22 +7047,20 @@
         <v>1540</v>
       </c>
       <c r="M158" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="5" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D159" s="5"/>
       <c r="F159" s="6">
         <v>1500</v>
       </c>
@@ -7587,22 +7083,20 @@
         <v>1500</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="5" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D160" s="5"/>
       <c r="F160" s="6">
         <v>2000</v>
       </c>
@@ -7625,22 +7119,20 @@
         <v>2000</v>
       </c>
       <c r="M160" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="5" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D161" s="5"/>
       <c r="F161" s="6">
         <v>2000</v>
       </c>
@@ -7663,22 +7155,20 @@
         <v>2000</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="5" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D162" s="5"/>
       <c r="F162" s="6">
         <v>1000</v>
       </c>
@@ -7701,22 +7191,20 @@
         <v>1000</v>
       </c>
       <c r="M162" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="5" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D163" s="5"/>
       <c r="F163" s="6">
         <v>2500</v>
       </c>
@@ -7739,22 +7227,20 @@
         <v>2500</v>
       </c>
       <c r="M163" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="5" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>143</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D164" s="5"/>
       <c r="F164" s="6">
         <v>1500</v>
       </c>
@@ -7777,22 +7263,20 @@
         <v>1500</v>
       </c>
       <c r="M164" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="5" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D165" s="5"/>
       <c r="F165" s="6">
         <v>2000</v>
       </c>
@@ -7815,22 +7299,20 @@
         <v>2000</v>
       </c>
       <c r="M165" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="5" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D166" s="5"/>
       <c r="F166" s="6">
         <v>2000</v>
       </c>
@@ -7853,22 +7335,20 @@
         <v>2000</v>
       </c>
       <c r="M166" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="5" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D167" s="5"/>
       <c r="F167" s="6">
         <v>1500</v>
       </c>
@@ -7891,22 +7371,20 @@
         <v>1500</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="5" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D168" s="5"/>
       <c r="F168" s="6">
         <v>6000</v>
       </c>
@@ -7929,22 +7407,20 @@
         <v>6000</v>
       </c>
       <c r="M168" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="5" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D169" s="5"/>
       <c r="F169" s="6">
         <v>1000</v>
       </c>
@@ -7967,22 +7443,20 @@
         <v>1000</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="5" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D170" s="5"/>
       <c r="F170" s="6">
         <v>3000</v>
       </c>
@@ -8005,22 +7479,20 @@
         <v>3000</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="5" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D171" s="5"/>
       <c r="F171" s="6">
         <v>3000</v>
       </c>
@@ -8043,22 +7515,20 @@
         <v>3000</v>
       </c>
       <c r="M171" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="5" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D172" s="5"/>
       <c r="F172" s="6">
         <v>8000</v>
       </c>
@@ -8081,22 +7551,20 @@
         <v>8000</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="5" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D173" s="5"/>
       <c r="F173" s="6">
         <v>2000</v>
       </c>
@@ -8119,22 +7587,20 @@
         <v>2000</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="5" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D174" s="5"/>
       <c r="F174" s="6">
         <v>1000</v>
       </c>
@@ -8157,22 +7623,20 @@
         <v>1000</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="5" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>157</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D175" s="5"/>
       <c r="F175" s="6">
         <v>1864</v>
       </c>
@@ -8195,22 +7659,20 @@
         <v>1864</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="5" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D176" s="5"/>
       <c r="F176" s="6">
         <v>4200</v>
       </c>
@@ -8233,22 +7695,20 @@
         <v>4200</v>
       </c>
       <c r="M176" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="5" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D177" s="5"/>
       <c r="F177" s="6">
         <v>4000</v>
       </c>
@@ -8271,22 +7731,20 @@
         <v>4000</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="5" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>161</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D178" s="5"/>
       <c r="F178" s="6">
         <v>800</v>
       </c>
@@ -8309,22 +7767,20 @@
         <v>800</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="5" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D179" s="5"/>
       <c r="F179" s="6">
         <v>4500</v>
       </c>
@@ -8347,22 +7803,20 @@
         <v>4500</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>163</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D180" s="5"/>
       <c r="F180" s="6">
         <v>1000</v>
       </c>
@@ -8385,22 +7839,20 @@
         <v>1000</v>
       </c>
       <c r="M180" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="5" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>165</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D181" s="5"/>
       <c r="F181" s="6">
         <v>4500</v>
       </c>
@@ -8423,22 +7875,20 @@
         <v>4500</v>
       </c>
       <c r="M181" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="5" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D182" s="5"/>
       <c r="F182" s="6">
         <v>1600</v>
       </c>
@@ -8461,22 +7911,20 @@
         <v>1600</v>
       </c>
       <c r="M182" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D183" s="5"/>
       <c r="F183" s="6">
         <v>6000</v>
       </c>
@@ -8499,22 +7947,20 @@
         <v>6000</v>
       </c>
       <c r="M183" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D184" s="5"/>
       <c r="F184" s="6">
         <v>5800</v>
       </c>
@@ -8537,22 +7983,20 @@
         <v>5800</v>
       </c>
       <c r="M184" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D185" s="5"/>
       <c r="F185" s="6">
         <v>832</v>
       </c>
@@ -8575,22 +8019,20 @@
         <v>832</v>
       </c>
       <c r="M185" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="5" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D186" s="5"/>
       <c r="F186" s="6">
         <v>3000</v>
       </c>
@@ -8613,22 +8055,20 @@
         <v>3000</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="5" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D187" s="5"/>
       <c r="F187" s="6">
         <v>2000</v>
       </c>
@@ -8651,22 +8091,20 @@
         <v>2000</v>
       </c>
       <c r="M187" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="5" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D188" s="5"/>
       <c r="F188" s="6">
         <v>2500</v>
       </c>
@@ -8689,22 +8127,20 @@
         <v>2500</v>
       </c>
       <c r="M188" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="5" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D189" s="5"/>
       <c r="F189" s="6">
         <v>6000</v>
       </c>
@@ -8727,22 +8163,20 @@
         <v>6000</v>
       </c>
       <c r="M189" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="5" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>176</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D190" s="5"/>
       <c r="F190" s="6">
         <v>1000</v>
       </c>
@@ -8765,22 +8199,20 @@
         <v>1000</v>
       </c>
       <c r="M190" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="5" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>178</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D191" s="5"/>
       <c r="F191" s="6">
         <v>3000</v>
       </c>
@@ -8803,22 +8235,20 @@
         <v>3000</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="5" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D192" s="5"/>
       <c r="F192" s="6">
         <v>5000</v>
       </c>
@@ -8841,22 +8271,20 @@
         <v>5000</v>
       </c>
       <c r="M192" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="5" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D193" s="5"/>
       <c r="F193" s="6">
         <v>1440</v>
       </c>
@@ -8879,22 +8307,20 @@
         <v>1440</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="5" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D194" s="5"/>
       <c r="F194" s="6">
         <v>1000</v>
       </c>
@@ -8917,7 +8343,7 @@
         <v>1000</v>
       </c>
       <c r="M194" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8966,13 +8392,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B2">
         <v>2016</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -8983,13 +8409,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B3" s="5">
         <v>2016</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>7</v>
@@ -9000,13 +8426,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B4" s="5">
         <v>2016</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>8</v>
@@ -9017,13 +8443,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B5" s="5">
         <v>2016</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>9</v>
@@ -9034,13 +8460,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B6" s="5">
         <v>2016</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
@@ -9051,13 +8477,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B7" s="5">
         <v>2016</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>5</v>
@@ -9068,13 +8494,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B8" s="5">
         <v>2016</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>6</v>
@@ -9085,13 +8511,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B9" s="5">
         <v>2016</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
@@ -9102,13 +8528,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B10" s="5">
         <v>2016</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>8</v>
@@ -9119,13 +8545,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B11" s="5">
         <v>2016</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>9</v>

--- a/data/0. old data/0. raw/2016/companies/mundipharma.xlsx
+++ b/data/0. old data/0. raw/2016/companies/mundipharma.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="361">
   <si>
     <t>name</t>
   </si>
@@ -508,66 +508,24 @@
     <t>Quadrimed, die vier Kliniken von Montana</t>
   </si>
   <si>
-    <t xml:space="preserve">Onkologiepflege Schweiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junge Hausärztinnen und -ärzte Schweiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Pneumologie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizer Paraplegiker Zentrum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forum für Medizinische Fortbildung </t>
-  </si>
-  <si>
     <t>Kollegium für Hausarztmedizin</t>
   </si>
   <si>
-    <t xml:space="preserve">Gruppo Medico Formazione </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft zum Studium des Schmerzes </t>
-  </si>
-  <si>
     <t>Verband Schweizer Assistenz- und Oberärzt/Innen</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweizerische Gesellschaft für Palliative Medizin, Pflege und Begleitung </t>
-  </si>
-  <si>
     <t>Schweizerische Aerztegesellschaft für Manuelle Medizin</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweizerischer Verein der Amts- und Spitalapotheker </t>
-  </si>
-  <si>
     <t>Schweizerische Gesellschaft für Allgemeine Innere Medizin</t>
   </si>
   <si>
-    <t xml:space="preserve">Universitätsspital </t>
-  </si>
-  <si>
     <t>Universitätsklinik Balgrist</t>
   </si>
   <si>
-    <t xml:space="preserve">CHUV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staatsverein </t>
-  </si>
-  <si>
     <t>Staatsverein</t>
   </si>
   <si>
-    <t xml:space="preserve">Triemli </t>
-  </si>
-  <si>
     <t>Spitalzentrum</t>
   </si>
   <si>
@@ -607,268 +565,544 @@
     <t>Schweiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Stucki, Anne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beris, Photis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletang, Berenice </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthes, Thomas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voruz, Sophie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwicky, Caroline </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gugger, Barbara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strasser, Johannes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wölffer, Mahdieh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mäder, Roger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beck, Thilo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blaser, Marie-Claude </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluzeau, Jérôme </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eicher, Jacques </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hachaichi, Mohamed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer, Laurianne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nozinic, Mirjana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelet, Anne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santoro, Nuré </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zullino, Daniele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierro, Danielle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calzada, Gérard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusi-Schmidhauser, Tanja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Györik, Sandor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankel, Lorenz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escher, Robert </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitz, Felicitas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiler, Daniela </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lang, Noemie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baumeler, Luzia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urwyler, Pascal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schihin, Patrick </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calderari, Gianluca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staneczek, Oliver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uldry, Christophe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rüegg, Christine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keller, Damien </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasche, Antoine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ott, Alexander </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurer, Konrad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rehberg-Klug, Benno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aebi, Urs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laures, Marco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purek, Lesek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasche, Karsten </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lelek-Szacki, Anna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulrich, Urs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigrist, Thomas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanneberger, Oliver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dür, Peter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocker, Philipp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joos Zellweger, Ladina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breitenbücher, Albrecht </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tschacher, Anne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stöwhas, Anne-Christin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guglielmi, Susanne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frühauf, Bernhard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Güntert, Daniel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tüller, Claudia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eich-Wanger, Christine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siebenschein, René </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bardelli, Donata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ottolini, Luca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mischo, Axel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besse, Lenka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarenbach, Christian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kohler, Malcolm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridevaux, Pierre-Olivier </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soyka, Michael </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantoni, Nathan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grassi, Silvio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirotta, Roberto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blumenthal, Stephan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siegenthaler, Andreas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hügle, Thomas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goede, Jeroen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genevay, Stéphane </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suter, Marc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schöb-Koster, Roman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulden-Sala, Wiebke </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piguet, Valérie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerber, Alfred </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zyska, Anja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rentsch, Katharina </t>
-  </si>
-  <si>
     <t>Jacquard, Nathalie</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerber, Peter J. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinson, Cécile A. </t>
-  </si>
-  <si>
     <t>mundipharma</t>
+  </si>
+  <si>
+    <t>Pfingstweidstrasse 10</t>
+  </si>
+  <si>
+    <t>Haldenrain 18</t>
+  </si>
+  <si>
+    <t>Onkologiepflege Schweiz</t>
+  </si>
+  <si>
+    <t>Hirstigstrasse 13</t>
+  </si>
+  <si>
+    <t>Junge Hausärztinnen und -ärzte Schweiz</t>
+  </si>
+  <si>
+    <t>Effingerstrasse 2</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Pneumologie</t>
+  </si>
+  <si>
+    <t>Forum für Medizinische Fortbildung</t>
+  </si>
+  <si>
+    <t>Rue de l'Hôpital 15</t>
+  </si>
+  <si>
+    <t>Gruppo Medico Formazione</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft zum Studium des Schmerzes</t>
+  </si>
+  <si>
+    <t>Aargauerstrasse 250</t>
+  </si>
+  <si>
+    <t>Bollwerk 10</t>
+  </si>
+  <si>
+    <t>Kolumbanstrasse 2</t>
+  </si>
+  <si>
+    <t>Monbijoustrasse 43</t>
+  </si>
+  <si>
+    <t>Via Cadogno 1</t>
+  </si>
+  <si>
+    <t>Badstrasse 55</t>
+  </si>
+  <si>
+    <t>Schützengasse 31</t>
+  </si>
+  <si>
+    <t>Worblaufenstrasse 178</t>
+  </si>
+  <si>
+    <t>Route de l’Arnon 16</t>
+  </si>
+  <si>
+    <t>Gesellschaftsstrasse 49</t>
+  </si>
+  <si>
+    <t>Gellertstrasse 144</t>
+  </si>
+  <si>
+    <t>CHUV</t>
+  </si>
+  <si>
+    <t>Rue du Bugnon 21</t>
+  </si>
+  <si>
+    <t>Via Tesserete 46</t>
+  </si>
+  <si>
+    <t>HFR Freiburg - Kantonsspital</t>
+  </si>
+  <si>
+    <t>Aegeristrasse 56</t>
+  </si>
+  <si>
+    <t>Metzgergasse 22</t>
+  </si>
+  <si>
+    <t>Vers-Saint-Ame 10</t>
+  </si>
+  <si>
+    <t>Maladière 45</t>
+  </si>
+  <si>
+    <t>HUG</t>
+  </si>
+  <si>
+    <t>Ruegabrielle Perret-Gentil 4</t>
+  </si>
+  <si>
+    <t>Goldiwilstrasse 36a</t>
+  </si>
+  <si>
+    <t>Schwanenplatz 7</t>
+  </si>
+  <si>
+    <t>Loestrasse 170</t>
+  </si>
+  <si>
+    <t>Hasel 837</t>
+  </si>
+  <si>
+    <t>Taminaplatz 1</t>
+  </si>
+  <si>
+    <t>Spitalstrasse 11</t>
+  </si>
+  <si>
+    <t>Badenerstrasse 332</t>
+  </si>
+  <si>
+    <t>Witellikerstrasse 40</t>
+  </si>
+  <si>
+    <t>Marktgasse 55</t>
+  </si>
+  <si>
+    <t>Flurstrasse 12</t>
+  </si>
+  <si>
+    <t>Hunzigenallee 1</t>
+  </si>
+  <si>
+    <t>Salinenstrasse 98Rheinfelden</t>
+  </si>
+  <si>
+    <t>Birmensdorferstrasse 497, Zürich</t>
+  </si>
+  <si>
+    <t>Schweizer Paraplegiker Zentrum</t>
+  </si>
+  <si>
+    <t>Guido A. Zäch Strasse 1</t>
+  </si>
+  <si>
+    <t>Matterstrasse 5</t>
+  </si>
+  <si>
+    <t>Baslerstrasse 150</t>
+  </si>
+  <si>
+    <t>Spitalstrasse 44</t>
+  </si>
+  <si>
+    <t>Spitalstrasse 6</t>
+  </si>
+  <si>
+    <t>Pfaffenholzstrasse 4</t>
+  </si>
+  <si>
+    <t>Birmensdorferstrasse 497</t>
+  </si>
+  <si>
+    <t>Forchstrasse 340</t>
+  </si>
+  <si>
+    <t>Helbelstrasse 36</t>
+  </si>
+  <si>
+    <t>Rämistrasse 100</t>
+  </si>
+  <si>
+    <t>Via Cantonale</t>
+  </si>
+  <si>
+    <t>Ahornstrasse 2</t>
+  </si>
+  <si>
+    <t>Place du 23 juin 2</t>
+  </si>
+  <si>
+    <t>Freiburgstrasse 18</t>
+  </si>
+  <si>
+    <t>Wieshofstrasse 102 Postfach 144</t>
+  </si>
+  <si>
+    <t>Finsterwaldstrasse 91</t>
+  </si>
+  <si>
+    <t>Spitalstrasse 31</t>
+  </si>
+  <si>
+    <t>Rue du Conseil-Général 11</t>
+  </si>
+  <si>
+    <t>Case postale 299</t>
+  </si>
+  <si>
+    <t>Schweizerischer Verein der Amts- und Spitalapotheker</t>
+  </si>
+  <si>
+    <t>Waldeggstrasse 10</t>
+  </si>
+  <si>
+    <t>Vogelsang 84</t>
+  </si>
+  <si>
+    <t>Kleinriehenstrasse 30</t>
+  </si>
+  <si>
+    <t>Chutzenstrasse 10</t>
+  </si>
+  <si>
+    <t>Via Ressiga 5</t>
+  </si>
+  <si>
+    <t>Bubenbergplatz 11Bern</t>
+  </si>
+  <si>
+    <t>Chemin des Pensionnats 2-6 c/oHFR Fribourg - Hôpital cantonal,Pharmacie</t>
+  </si>
+  <si>
+    <t>Stucki, Anne</t>
+  </si>
+  <si>
+    <t>Beris, Photis</t>
+  </si>
+  <si>
+    <t>Deletang, Berenice</t>
+  </si>
+  <si>
+    <t>Matthes, Thomas</t>
+  </si>
+  <si>
+    <t>Voruz, Sophie</t>
+  </si>
+  <si>
+    <t>Zwicky, Caroline</t>
+  </si>
+  <si>
+    <t>Gugger, Barbara</t>
+  </si>
+  <si>
+    <t>Strasser, Johannes</t>
+  </si>
+  <si>
+    <t>Wölffer, Mahdieh</t>
+  </si>
+  <si>
+    <t>Mäder, Roger</t>
+  </si>
+  <si>
+    <t>Beck, Thilo</t>
+  </si>
+  <si>
+    <t>Blaser, Marie-Claude</t>
+  </si>
+  <si>
+    <t>Cluzeau, Jérôme</t>
+  </si>
+  <si>
+    <t>Eicher, Jacques</t>
+  </si>
+  <si>
+    <t>Hachaichi, Mohamed</t>
+  </si>
+  <si>
+    <t>Mer, Laurianne</t>
+  </si>
+  <si>
+    <t>Nozinic, Mirjana</t>
+  </si>
+  <si>
+    <t>Pelet, Anne</t>
+  </si>
+  <si>
+    <t>Santoro, Nuré</t>
+  </si>
+  <si>
+    <t>Zullino, Daniele</t>
+  </si>
+  <si>
+    <t>Sierro, Danielle</t>
+  </si>
+  <si>
+    <t>Calzada, Gérard</t>
+  </si>
+  <si>
+    <t>Fusi-Schmidhauser, Tanja</t>
+  </si>
+  <si>
+    <t>Györik, Sandor</t>
+  </si>
+  <si>
+    <t>Bankel, Lorenz</t>
+  </si>
+  <si>
+    <t>Escher, Robert</t>
+  </si>
+  <si>
+    <t>Hitz, Felicitas</t>
+  </si>
+  <si>
+    <t>Weiler, Daniela</t>
+  </si>
+  <si>
+    <t>Lang, Noemie</t>
+  </si>
+  <si>
+    <t>Baumeler, Luzia</t>
+  </si>
+  <si>
+    <t>Urwyler, Pascal</t>
+  </si>
+  <si>
+    <t>Schihin, Patrick</t>
+  </si>
+  <si>
+    <t>Calderari, Gianluca</t>
+  </si>
+  <si>
+    <t>Staneczek, Oliver</t>
+  </si>
+  <si>
+    <t>Uldry, Christophe</t>
+  </si>
+  <si>
+    <t>Rüegg, Christine</t>
+  </si>
+  <si>
+    <t>Keller, Damien</t>
+  </si>
+  <si>
+    <t>Pasche, Antoine</t>
+  </si>
+  <si>
+    <t>Ott, Alexander</t>
+  </si>
+  <si>
+    <t>Maurer, Konrad</t>
+  </si>
+  <si>
+    <t>Rehberg-Klug, Benno</t>
+  </si>
+  <si>
+    <t>Aebi, Urs</t>
+  </si>
+  <si>
+    <t>Laures, Marco</t>
+  </si>
+  <si>
+    <t>Purek, Lesek</t>
+  </si>
+  <si>
+    <t>Rasche, Karsten</t>
+  </si>
+  <si>
+    <t>Lelek-Szacki, Anna</t>
+  </si>
+  <si>
+    <t>Ulrich, Urs</t>
+  </si>
+  <si>
+    <t>Sigrist, Thomas</t>
+  </si>
+  <si>
+    <t>Tanneberger, Oliver</t>
+  </si>
+  <si>
+    <t>Dür, Peter</t>
+  </si>
+  <si>
+    <t>Stocker, Philipp</t>
+  </si>
+  <si>
+    <t>Joos Zellweger, Ladina</t>
+  </si>
+  <si>
+    <t>Breitenbücher, Albrecht</t>
+  </si>
+  <si>
+    <t>Tschacher, Anne</t>
+  </si>
+  <si>
+    <t>Gerber, Peter J.</t>
+  </si>
+  <si>
+    <t>Stöwhas, Anne-Christin</t>
+  </si>
+  <si>
+    <t>Guglielmi, Susanne</t>
+  </si>
+  <si>
+    <t>Frühauf, Bernhard</t>
+  </si>
+  <si>
+    <t>Güntert, Daniel</t>
+  </si>
+  <si>
+    <t>Tüller, Claudia</t>
+  </si>
+  <si>
+    <t>Eich-Wanger, Christine</t>
+  </si>
+  <si>
+    <t>Siebenschein, René</t>
+  </si>
+  <si>
+    <t>Bardelli, Donata</t>
+  </si>
+  <si>
+    <t>Ottolini, Luca</t>
+  </si>
+  <si>
+    <t>Mischo, Axel</t>
+  </si>
+  <si>
+    <t>Besse, Lenka</t>
+  </si>
+  <si>
+    <t>Clarenbach, Christian</t>
+  </si>
+  <si>
+    <t>Kohler, Malcolm</t>
+  </si>
+  <si>
+    <t>Bridevaux, Pierre-Olivier</t>
+  </si>
+  <si>
+    <t>Soyka, Michael</t>
+  </si>
+  <si>
+    <t>Cantoni, Nathan</t>
+  </si>
+  <si>
+    <t>Grassi, Silvio</t>
+  </si>
+  <si>
+    <t>Pirotta, Roberto</t>
+  </si>
+  <si>
+    <t>Blumenthal, Stephan</t>
+  </si>
+  <si>
+    <t>Siegenthaler, Andreas</t>
+  </si>
+  <si>
+    <t>Hügle, Thomas</t>
+  </si>
+  <si>
+    <t>Goede, Jeroen</t>
+  </si>
+  <si>
+    <t>Genevay, Stéphane</t>
+  </si>
+  <si>
+    <t>Suter, Marc</t>
+  </si>
+  <si>
+    <t>Schöb-Koster, Roman</t>
+  </si>
+  <si>
+    <t>Robinson, Cécile A.</t>
+  </si>
+  <si>
+    <t>Gulden-Sala, Wiebke</t>
+  </si>
+  <si>
+    <t>Piguet, Valérie</t>
+  </si>
+  <si>
+    <t>Gerber, Alfred</t>
+  </si>
+  <si>
+    <t>Zyska, Anja</t>
+  </si>
+  <si>
+    <t>Rentsch, Katharina</t>
+  </si>
+  <si>
+    <t>Schweizerische Gesellschaft für Palliative Medizin, Pflege und Begleitung</t>
+  </si>
+  <si>
+    <t>Triemli</t>
+  </si>
+  <si>
+    <t>Aeschenbrunnmattstrasse 9</t>
+  </si>
+  <si>
+    <t>Rue Conseilgénéral 11</t>
+  </si>
+  <si>
+    <t>Avenue du Grand-Champsec 80</t>
+  </si>
+  <si>
+    <t>Waldeckstrasse 23</t>
+  </si>
+  <si>
+    <t>Avenir 12</t>
+  </si>
+  <si>
+    <t>Monbijoustrasse 35</t>
+  </si>
+  <si>
+    <t>Potfach 98</t>
+  </si>
+  <si>
+    <t>Wahlenstrasse 56</t>
+  </si>
+  <si>
+    <t>Via Muncucco 10</t>
+  </si>
+  <si>
+    <t>Ospedale San Giovanni, Via Ospedale</t>
+  </si>
+  <si>
+    <t>Via Fogazzaro 3</t>
+  </si>
+  <si>
+    <t>Zürichstrasse 12Luzern</t>
+  </si>
+  <si>
+    <t>Bergstrasse 16</t>
+  </si>
+  <si>
+    <t>av. Vinet 19bis</t>
+  </si>
+  <si>
+    <t>Via Ospedale 12</t>
+  </si>
+  <si>
+    <t>Sulgeneckstrasse 38</t>
+  </si>
+  <si>
+    <t>Rorschacher Strasse 150</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1371,6 +1605,73 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1399,7 +1700,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="125">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1434,6 +1735,73 @@
     <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1758,9 +2126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1822,17 +2190,15 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
@@ -1851,20 +2217,20 @@
         <v>675</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
@@ -1883,20 +2249,20 @@
         <v>887</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
@@ -1915,20 +2281,20 @@
         <v>860</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
@@ -1947,20 +2313,20 @@
         <v>1002</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
@@ -1979,20 +2345,20 @@
         <v>890</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
@@ -2011,20 +2377,20 @@
         <v>883</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
@@ -2043,20 +2409,20 @@
         <v>580</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
@@ -2075,20 +2441,20 @@
         <v>688</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
@@ -2107,20 +2473,20 @@
         <v>688</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -2139,20 +2505,20 @@
         <v>606</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
@@ -2171,20 +2537,20 @@
         <v>614</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
@@ -2203,20 +2569,20 @@
         <v>870</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
@@ -2235,20 +2601,20 @@
         <v>762</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
@@ -2267,20 +2633,20 @@
         <v>1008</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
@@ -2299,20 +2665,20 @@
         <v>740</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
@@ -2331,20 +2697,20 @@
         <v>665</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
@@ -2363,20 +2729,20 @@
         <v>699</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
@@ -2395,20 +2761,20 @@
         <v>867</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
@@ -2427,20 +2793,20 @@
         <v>823</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
@@ -2459,20 +2825,20 @@
         <v>792</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
@@ -2491,20 +2857,20 @@
         <v>769</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
@@ -2523,20 +2889,20 @@
         <v>940</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
@@ -2555,20 +2921,20 @@
         <v>584</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6">
@@ -2587,20 +2953,20 @@
         <v>1278</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6">
@@ -2619,20 +2985,20 @@
         <v>1251</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6">
@@ -2651,20 +3017,20 @@
         <v>1074</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
@@ -2683,20 +3049,20 @@
         <v>1112</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
@@ -2715,20 +3081,20 @@
         <v>806</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
@@ -2747,20 +3113,20 @@
         <v>1112</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
@@ -2779,20 +3145,20 @@
         <v>1308</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
@@ -2811,20 +3177,20 @@
         <v>1328</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6">
@@ -2843,20 +3209,20 @@
         <v>1180</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
@@ -2875,20 +3241,20 @@
         <v>1864</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
@@ -2907,20 +3273,20 @@
         <v>1422</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
@@ -2939,20 +3305,20 @@
         <v>1374</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
@@ -2971,20 +3337,20 @@
         <v>1626</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
@@ -3003,20 +3369,20 @@
         <v>1780</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
@@ -3035,20 +3401,20 @@
         <v>1500</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6">
@@ -3067,20 +3433,20 @@
         <v>1544</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
@@ -3099,20 +3465,20 @@
         <v>2708</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6">
@@ -3131,20 +3497,20 @@
         <v>4738</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
@@ -3163,20 +3529,20 @@
         <v>2650</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6">
@@ -3195,20 +3561,20 @@
         <v>690</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
@@ -3227,20 +3593,20 @@
         <v>690</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6">
@@ -3259,20 +3625,20 @@
         <v>690</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
@@ -3291,20 +3657,20 @@
         <v>690</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
@@ -3323,20 +3689,20 @@
         <v>510</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6">
@@ -3355,20 +3721,20 @@
         <v>1015</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6">
@@ -3387,20 +3753,20 @@
         <v>922</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6">
@@ -3419,20 +3785,20 @@
         <v>656</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D52" s="5"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
@@ -3451,20 +3817,20 @@
         <v>668</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
@@ -3483,20 +3849,20 @@
         <v>714</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D54" s="5"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
@@ -3515,20 +3881,20 @@
         <v>674</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
@@ -3547,20 +3913,20 @@
         <v>674</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D56" s="5"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6">
@@ -3579,7 +3945,7 @@
         <v>674</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3590,9 +3956,9 @@
         <v>21</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6">
@@ -3611,20 +3977,20 @@
         <v>1408</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D58" s="5"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6">
@@ -3643,19 +4009,20 @@
         <v>714</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6">
@@ -3674,19 +4041,20 @@
         <v>690</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="5" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D60" s="5"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6">
@@ -3705,19 +4073,20 @@
         <v>724</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6">
@@ -3736,19 +4105,20 @@
         <v>738</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D62" s="5"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6">
@@ -3767,19 +4137,20 @@
         <v>838</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D63" s="5"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6">
@@ -3798,19 +4169,20 @@
         <v>710</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D64" s="5"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6">
@@ -3829,19 +4201,20 @@
         <v>952</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D65" s="5"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
@@ -3860,19 +4233,20 @@
         <v>704</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s">
         <v>146</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D66" s="5"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
@@ -3891,19 +4265,20 @@
         <v>788</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D67" s="5"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6">
@@ -3922,19 +4297,20 @@
         <v>550</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6">
@@ -3953,19 +4329,20 @@
         <v>4656</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D69" s="5"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6">
@@ -3984,19 +4361,20 @@
         <v>6813</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="8" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D70" s="5"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6">
@@ -4015,19 +4393,20 @@
         <v>12100</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D71" s="5"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6">
@@ -4046,19 +4425,20 @@
         <v>6750</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D72" s="5"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6">
@@ -4077,19 +4457,20 @@
         <v>7500</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6">
@@ -4108,19 +4489,20 @@
         <v>4400</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D74" s="5"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6">
@@ -4139,19 +4521,20 @@
         <v>1500</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
-        <v>264</v>
+        <v>326</v>
       </c>
       <c r="B75" t="s">
         <v>144</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D75" s="5"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6">
@@ -4170,19 +4553,20 @@
         <v>500</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="B76" t="s">
         <v>150</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D76" s="5"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6">
@@ -4201,19 +4585,20 @@
         <v>300</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D77" s="5"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6">
@@ -4232,19 +4617,20 @@
         <v>1000</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D78" s="5"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
@@ -4263,19 +4649,20 @@
         <v>1500</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D79" s="5"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6">
@@ -4294,19 +4681,20 @@
         <v>1000</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6">
@@ -4325,19 +4713,20 @@
         <v>1000</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D81" s="5"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6">
@@ -4356,19 +4745,20 @@
         <v>2000</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="B82" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6">
@@ -4387,19 +4777,20 @@
         <v>2000</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D83" s="5"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6">
@@ -4418,19 +4809,20 @@
         <v>2000</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D84" s="5"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
@@ -4449,19 +4841,20 @@
         <v>1000</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D85" s="5"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
@@ -4480,19 +4873,20 @@
         <v>500</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D86" s="5"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
@@ -4511,19 +4905,20 @@
         <v>2500</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="5" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="B87" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D87" s="5"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
@@ -4542,19 +4937,20 @@
         <v>892</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D88" s="5"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6">
@@ -4573,19 +4969,20 @@
         <v>1000</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="5" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="B89" t="s">
         <v>152</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D89" s="5"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6">
@@ -4604,19 +5001,20 @@
         <v>1000</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="B90" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D90" s="5"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6">
@@ -4635,19 +5033,20 @@
         <v>2000</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D91" s="5"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
@@ -4666,7 +5065,7 @@
         <v>920</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="8" customFormat="1">
@@ -4677,7 +5076,10 @@
         <v>25</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="F92" s="9">
         <v>6000</v>
@@ -4701,7 +5103,7 @@
         <v>6000</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4712,7 +5114,10 @@
         <v>25</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="F93" s="6">
         <v>3800</v>
@@ -4736,7 +5141,7 @@
         <v>3800</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4747,7 +5152,10 @@
         <v>153</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="F94" s="6">
         <v>6740</v>
@@ -4771,7 +5179,7 @@
         <v>6740</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4782,7 +5190,10 @@
         <v>40</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="F95" s="6">
         <v>12700</v>
@@ -4806,18 +5217,21 @@
         <v>12700</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="4" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B96" t="s">
         <v>156</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="F96" s="6">
         <v>3250</v>
@@ -4841,18 +5255,21 @@
         <v>3250</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="4" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="F97" s="6">
         <v>10000</v>
@@ -4876,18 +5293,21 @@
         <v>10000</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="4" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="F98" s="6">
         <v>23060</v>
@@ -4911,18 +5331,21 @@
         <v>23060</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="4" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="B99" t="s">
         <v>154</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="F99" s="6">
         <v>5696.7</v>
@@ -4946,18 +5369,21 @@
         <v>5696.7</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="4" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
         <v>50</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="F100" s="6">
         <v>64800</v>
@@ -4981,18 +5407,21 @@
         <v>64800</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
         <v>21</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="F101" s="6">
         <v>11420</v>
@@ -5016,18 +5445,21 @@
         <v>11420</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="4" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
         <v>155</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="F102" s="6">
         <v>3300</v>
@@ -5051,17 +5483,20 @@
         <v>3300</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="4" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B103" t="s">
         <v>25</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>194</v>
       </c>
       <c r="F103" s="6">
@@ -5086,18 +5521,21 @@
         <v>6100</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F104" s="6">
         <v>9000</v>
@@ -5121,18 +5559,21 @@
         <v>9000</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="4" t="s">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="F105" s="6">
         <v>6500</v>
@@ -5156,18 +5597,21 @@
         <v>6500</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
         <v>24</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="F106" s="6">
         <v>6120</v>
@@ -5191,18 +5635,21 @@
         <v>6120</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="4" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="F107" s="6">
         <v>3000</v>
@@ -5226,18 +5673,21 @@
         <v>3000</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="F108" s="6">
         <v>2400</v>
@@ -5261,7 +5711,7 @@
         <v>2400</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5272,7 +5722,10 @@
         <v>21</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="F109" s="6">
         <v>28153</v>
@@ -5296,7 +5749,7 @@
         <v>28153</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5307,7 +5760,10 @@
         <v>22</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="F110" s="6">
         <v>43020</v>
@@ -5331,18 +5787,21 @@
         <v>43020</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="4" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="F111" s="6">
         <v>40675.5</v>
@@ -5366,18 +5825,21 @@
         <v>40675.5</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B112" t="s">
         <v>25</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="F112" s="6">
         <v>1500</v>
@@ -5401,18 +5863,21 @@
         <v>1500</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="4" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="F113" s="6">
         <v>8800</v>
@@ -5436,18 +5901,21 @@
         <v>8800</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F114" s="6">
         <v>30023</v>
@@ -5471,19 +5939,20 @@
         <v>30023</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D115" s="5"/>
       <c r="F115" s="6">
         <v>5821.5</v>
       </c>
@@ -5506,19 +5975,20 @@
         <v>5821.5</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D116" s="5"/>
       <c r="F116" s="6">
         <v>3500</v>
       </c>
@@ -5541,19 +6011,20 @@
         <v>3500</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D117" s="5"/>
       <c r="F117" s="6">
         <v>2000</v>
       </c>
@@ -5576,19 +6047,20 @@
         <v>2000</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
         <v>19</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D118" s="5"/>
       <c r="F118" s="6">
         <v>5060</v>
       </c>
@@ -5611,18 +6083,21 @@
         <v>5060</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="4" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
         <v>25</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="F119" s="6">
         <v>14900</v>
@@ -5646,18 +6121,21 @@
         <v>14900</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
         <v>46</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="F120" s="6">
         <v>6000</v>
@@ -5681,18 +6159,21 @@
         <v>6000</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
         <v>157</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="F121" s="6">
         <v>6000</v>
@@ -5716,7 +6197,7 @@
         <v>6000</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5727,7 +6208,10 @@
         <v>158</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="F122" s="6">
         <v>1000</v>
@@ -5751,7 +6235,7 @@
         <v>1000</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5762,9 +6246,11 @@
         <v>59</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D123" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="F123" s="6">
         <v>1000</v>
       </c>
@@ -5787,7 +6273,7 @@
         <v>1000</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5798,9 +6284,11 @@
         <v>61</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D124" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="F124" s="6">
         <v>1500</v>
       </c>
@@ -5823,7 +6311,7 @@
         <v>1500</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5834,9 +6322,11 @@
         <v>24</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D125" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="F125" s="6">
         <v>8258</v>
       </c>
@@ -5859,7 +6349,7 @@
         <v>8258</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5870,9 +6360,11 @@
         <v>21</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D126" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="F126" s="6">
         <v>4000</v>
       </c>
@@ -5895,7 +6387,7 @@
         <v>4000</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5906,9 +6398,11 @@
         <v>20</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D127" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="F127" s="6">
         <v>2000</v>
       </c>
@@ -5931,7 +6425,7 @@
         <v>2000</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5942,9 +6436,11 @@
         <v>20</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D128" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="F128" s="6">
         <v>2000</v>
       </c>
@@ -5967,7 +6463,7 @@
         <v>2000</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5978,9 +6474,11 @@
         <v>32</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D129" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="F129" s="6">
         <v>2000</v>
       </c>
@@ -6003,7 +6501,7 @@
         <v>2000</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6014,7 +6512,7 @@
         <v>20</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D130" s="5"/>
       <c r="F130" s="6">
@@ -6039,7 +6537,7 @@
         <v>2000</v>
       </c>
       <c r="M130" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6050,9 +6548,11 @@
         <v>22</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D131" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="F131" s="6">
         <v>2000</v>
       </c>
@@ -6075,7 +6575,7 @@
         <v>2000</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6086,9 +6586,11 @@
         <v>54</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D132" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="F132" s="6">
         <v>3240</v>
       </c>
@@ -6111,7 +6613,7 @@
         <v>3240</v>
       </c>
       <c r="M132" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6122,9 +6624,11 @@
         <v>70</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D133" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="F133" s="6">
         <v>2000</v>
       </c>
@@ -6147,7 +6651,7 @@
         <v>2000</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6158,9 +6662,11 @@
         <v>29</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D134" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="F134" s="6">
         <v>4500</v>
       </c>
@@ -6183,7 +6689,7 @@
         <v>4500</v>
       </c>
       <c r="M134" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6194,9 +6700,11 @@
         <v>25</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D135" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="F135" s="6">
         <v>11500</v>
       </c>
@@ -6219,7 +6727,7 @@
         <v>11500</v>
       </c>
       <c r="M135" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6230,9 +6738,11 @@
         <v>35</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D136" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="F136" s="6">
         <v>6000</v>
       </c>
@@ -6255,7 +6765,7 @@
         <v>6000</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6266,9 +6776,11 @@
         <v>47</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D137" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="F137" s="6">
         <v>1500</v>
       </c>
@@ -6291,7 +6803,7 @@
         <v>1500</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6302,9 +6814,11 @@
         <v>75</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D138" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="F138" s="6">
         <v>2000</v>
       </c>
@@ -6327,7 +6841,7 @@
         <v>2000</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6338,9 +6852,11 @@
         <v>49</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D139" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="F139" s="6">
         <v>4500</v>
       </c>
@@ -6363,7 +6879,7 @@
         <v>4500</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6374,9 +6890,11 @@
         <v>77</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D140" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="F140" s="6">
         <v>1000</v>
       </c>
@@ -6399,7 +6917,7 @@
         <v>1000</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6410,9 +6928,11 @@
         <v>21</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D141" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="F141" s="6">
         <v>6500</v>
       </c>
@@ -6435,7 +6955,7 @@
         <v>6500</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6446,9 +6966,11 @@
         <v>21</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D142" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="F142" s="6">
         <v>2500</v>
       </c>
@@ -6471,7 +6993,7 @@
         <v>2500</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6482,9 +7004,11 @@
         <v>81</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D143" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="F143" s="6">
         <v>1000</v>
       </c>
@@ -6507,7 +7031,7 @@
         <v>1000</v>
       </c>
       <c r="M143" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6518,9 +7042,11 @@
         <v>83</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D144" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="F144" s="6">
         <v>2500</v>
       </c>
@@ -6543,7 +7069,7 @@
         <v>2500</v>
       </c>
       <c r="M144" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6554,9 +7080,11 @@
         <v>49</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D145" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="F145" s="6">
         <v>1500</v>
       </c>
@@ -6579,7 +7107,7 @@
         <v>1500</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6590,9 +7118,11 @@
         <v>86</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D146" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F146" s="6">
         <v>2000</v>
       </c>
@@ -6615,7 +7145,7 @@
         <v>2000</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6626,9 +7156,11 @@
         <v>34</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D147" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="F147" s="6">
         <v>4100</v>
       </c>
@@ -6651,7 +7183,7 @@
         <v>4100</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6662,9 +7194,11 @@
         <v>70</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D148" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="F148" s="6">
         <v>2800</v>
       </c>
@@ -6687,7 +7221,7 @@
         <v>2800</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6698,7 +7232,7 @@
         <v>24</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D149" s="5"/>
       <c r="F149" s="6">
@@ -6723,7 +7257,7 @@
         <v>1500</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6734,9 +7268,11 @@
         <v>25</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D150" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="F150" s="6">
         <v>11500</v>
       </c>
@@ -6759,7 +7295,7 @@
         <v>11500</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6770,9 +7306,11 @@
         <v>92</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D151" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="F151" s="6">
         <v>1500</v>
       </c>
@@ -6795,7 +7333,7 @@
         <v>1500</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6806,9 +7344,11 @@
         <v>94</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D152" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="F152" s="6">
         <v>1500</v>
       </c>
@@ -6831,7 +7371,7 @@
         <v>1500</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6842,9 +7382,11 @@
         <v>49</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D153" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="F153" s="6">
         <v>2000</v>
       </c>
@@ -6867,7 +7409,7 @@
         <v>2000</v>
       </c>
       <c r="M153" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6878,9 +7420,11 @@
         <v>97</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D154" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="F154" s="6">
         <v>1000</v>
       </c>
@@ -6903,7 +7447,7 @@
         <v>1000</v>
       </c>
       <c r="M154" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6914,9 +7458,11 @@
         <v>34</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D155" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="F155" s="6">
         <v>1000</v>
       </c>
@@ -6939,7 +7485,7 @@
         <v>1000</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6950,9 +7496,11 @@
         <v>35</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D156" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="F156" s="6">
         <v>3500</v>
       </c>
@@ -6975,7 +7523,7 @@
         <v>3500</v>
       </c>
       <c r="M156" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6986,7 +7534,7 @@
         <v>101</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D157" s="5"/>
       <c r="F157" s="6">
@@ -7011,7 +7559,7 @@
         <v>1000</v>
       </c>
       <c r="M157" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7022,9 +7570,11 @@
         <v>103</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D158" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="F158" s="6">
         <v>1540</v>
       </c>
@@ -7047,7 +7597,7 @@
         <v>1540</v>
       </c>
       <c r="M158" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7058,7 +7608,7 @@
         <v>24</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D159" s="5"/>
       <c r="F159" s="6">
@@ -7083,7 +7633,7 @@
         <v>1500</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7094,9 +7644,11 @@
         <v>106</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D160" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="F160" s="6">
         <v>2000</v>
       </c>
@@ -7119,7 +7671,7 @@
         <v>2000</v>
       </c>
       <c r="M160" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7130,9 +7682,11 @@
         <v>30</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D161" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="F161" s="6">
         <v>2000</v>
       </c>
@@ -7155,7 +7709,7 @@
         <v>2000</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7166,9 +7720,11 @@
         <v>34</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D162" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="F162" s="6">
         <v>1000</v>
       </c>
@@ -7191,7 +7747,7 @@
         <v>1000</v>
       </c>
       <c r="M162" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7202,9 +7758,11 @@
         <v>40</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D163" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="F163" s="6">
         <v>2500</v>
       </c>
@@ -7227,7 +7785,7 @@
         <v>2500</v>
       </c>
       <c r="M163" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7238,9 +7796,11 @@
         <v>111</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D164" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="F164" s="6">
         <v>1500</v>
       </c>
@@ -7263,7 +7823,7 @@
         <v>1500</v>
       </c>
       <c r="M164" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7274,9 +7834,11 @@
         <v>21</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D165" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="F165" s="6">
         <v>2000</v>
       </c>
@@ -7299,7 +7861,7 @@
         <v>2000</v>
       </c>
       <c r="M165" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7310,9 +7872,11 @@
         <v>25</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D166" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="F166" s="6">
         <v>2000</v>
       </c>
@@ -7335,7 +7899,7 @@
         <v>2000</v>
       </c>
       <c r="M166" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7346,7 +7910,7 @@
         <v>115</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D167" s="5"/>
       <c r="F167" s="6">
@@ -7371,7 +7935,7 @@
         <v>1500</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7382,9 +7946,11 @@
         <v>117</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D168" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="F168" s="6">
         <v>6000</v>
       </c>
@@ -7407,7 +7973,7 @@
         <v>6000</v>
       </c>
       <c r="M168" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7418,7 +7984,7 @@
         <v>24</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D169" s="5"/>
       <c r="F169" s="6">
@@ -7443,7 +8009,7 @@
         <v>1000</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7454,9 +8020,11 @@
         <v>120</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D170" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="F170" s="6">
         <v>3000</v>
       </c>
@@ -7479,7 +8047,7 @@
         <v>3000</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7490,7 +8058,7 @@
         <v>21</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D171" s="5"/>
       <c r="F171" s="6">
@@ -7515,7 +8083,7 @@
         <v>3000</v>
       </c>
       <c r="M171" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7526,9 +8094,11 @@
         <v>30</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D172" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="F172" s="6">
         <v>8000</v>
       </c>
@@ -7551,7 +8121,7 @@
         <v>8000</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7562,7 +8132,7 @@
         <v>29</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D173" s="5"/>
       <c r="F173" s="6">
@@ -7587,7 +8157,7 @@
         <v>2000</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7598,9 +8168,11 @@
         <v>19</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D174" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="F174" s="6">
         <v>1000</v>
       </c>
@@ -7623,7 +8195,7 @@
         <v>1000</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7634,9 +8206,11 @@
         <v>125</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D175" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="F175" s="6">
         <v>1864</v>
       </c>
@@ -7659,7 +8233,7 @@
         <v>1864</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7670,9 +8244,11 @@
         <v>32</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D176" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="F176" s="6">
         <v>4200</v>
       </c>
@@ -7695,7 +8271,7 @@
         <v>4200</v>
       </c>
       <c r="M176" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7706,9 +8282,11 @@
         <v>22</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D177" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="F177" s="6">
         <v>4000</v>
       </c>
@@ -7731,7 +8309,7 @@
         <v>4000</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7742,9 +8320,11 @@
         <v>129</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D178" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F178" s="6">
         <v>800</v>
       </c>
@@ -7767,7 +8347,7 @@
         <v>800</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7778,9 +8358,11 @@
         <v>24</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D179" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="F179" s="6">
         <v>4500</v>
       </c>
@@ -7803,7 +8385,7 @@
         <v>4500</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7814,9 +8396,11 @@
         <v>131</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D180" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="F180" s="6">
         <v>1000</v>
       </c>
@@ -7839,7 +8423,7 @@
         <v>1000</v>
       </c>
       <c r="M180" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7850,9 +8434,11 @@
         <v>133</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D181" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="F181" s="6">
         <v>4500</v>
       </c>
@@ -7875,7 +8461,7 @@
         <v>4500</v>
       </c>
       <c r="M181" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7886,9 +8472,11 @@
         <v>135</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D182" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="F182" s="6">
         <v>1600</v>
       </c>
@@ -7911,7 +8499,7 @@
         <v>1600</v>
       </c>
       <c r="M182" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -7922,7 +8510,7 @@
         <v>21</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D183" s="5"/>
       <c r="F183" s="6">
@@ -7947,7 +8535,7 @@
         <v>6000</v>
       </c>
       <c r="M183" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7958,9 +8546,11 @@
         <v>138</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D184" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="F184" s="6">
         <v>5800</v>
       </c>
@@ -7983,7 +8573,7 @@
         <v>5800</v>
       </c>
       <c r="M184" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -7994,9 +8584,11 @@
         <v>35</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D185" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="F185" s="6">
         <v>832</v>
       </c>
@@ -8019,7 +8611,7 @@
         <v>832</v>
       </c>
       <c r="M185" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8030,9 +8622,11 @@
         <v>50</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D186" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="F186" s="6">
         <v>3000</v>
       </c>
@@ -8055,7 +8649,7 @@
         <v>3000</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8066,9 +8660,11 @@
         <v>40</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D187" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F187" s="6">
         <v>2000</v>
       </c>
@@ -8091,7 +8687,7 @@
         <v>2000</v>
       </c>
       <c r="M187" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8102,9 +8698,11 @@
         <v>21</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D188" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="F188" s="6">
         <v>2500</v>
       </c>
@@ -8127,7 +8725,7 @@
         <v>2500</v>
       </c>
       <c r="M188" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8138,9 +8736,11 @@
         <v>25</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D189" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="F189" s="6">
         <v>6000</v>
       </c>
@@ -8163,7 +8763,7 @@
         <v>6000</v>
       </c>
       <c r="M189" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8174,7 +8774,7 @@
         <v>144</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D190" s="5"/>
       <c r="F190" s="6">
@@ -8199,7 +8799,7 @@
         <v>1000</v>
       </c>
       <c r="M190" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8210,9 +8810,11 @@
         <v>146</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D191" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="F191" s="6">
         <v>3000</v>
       </c>
@@ -8235,7 +8837,7 @@
         <v>3000</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8246,9 +8848,11 @@
         <v>21</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D192" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="F192" s="6">
         <v>5000</v>
       </c>
@@ -8271,7 +8875,7 @@
         <v>5000</v>
       </c>
       <c r="M192" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8282,9 +8886,11 @@
         <v>24</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D193" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="F193" s="6">
         <v>1440</v>
       </c>
@@ -8307,7 +8913,7 @@
         <v>1440</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8318,9 +8924,11 @@
         <v>21</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D194" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="F194" s="6">
         <v>1000</v>
       </c>
@@ -8343,7 +8951,7 @@
         <v>1000</v>
       </c>
       <c r="M194" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -8392,13 +9000,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>2016</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -8409,13 +9017,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B3" s="5">
         <v>2016</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>7</v>
@@ -8426,13 +9034,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B4" s="5">
         <v>2016</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>8</v>
@@ -8443,13 +9051,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B5" s="5">
         <v>2016</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>9</v>
@@ -8460,13 +9068,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B6" s="5">
         <v>2016</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
@@ -8477,13 +9085,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B7" s="5">
         <v>2016</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>5</v>
@@ -8494,13 +9102,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B8" s="5">
         <v>2016</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>6</v>
@@ -8511,13 +9119,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5">
         <v>2016</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
@@ -8528,13 +9136,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B10" s="5">
         <v>2016</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>8</v>
@@ -8545,13 +9153,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B11" s="5">
         <v>2016</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>9</v>
